--- a/biology/Médecine/Phosphatidylglycérol/Phosphatidylglycérol.xlsx
+++ b/biology/Médecine/Phosphatidylglycérol/Phosphatidylglycérol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Phosphatidylglyc%C3%A9rol</t>
+          <t>Phosphatidylglycérol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un phosphatidylglycérol est un phospholipide constitué d'un acide phosphatidique lié par une liaison ester à un résidu glycérol.
 Ces composés sont les précurseurs du surfactant pulmonaire et leur présence dans le liquide amniotique indique la maturité pulmonaire du fœtus. Bien que leur concentration ne dépasse pas 5 % des phospholipides de cette sécrétion, ils joueraient plus particulièrement un rôle dans la dispersion du tensioactif pulmonaire sécrété par les pneumocytes de type II sur les 98 % de la surface alvéolaire occupés par les pneumocytes de type I. Le manque de phosphatidylglycérol conduit à une insuffisance respiratoire sévère.
